--- a/docs/01-iniciacao/artefatos/registro-partes-interessadas.xlsx
+++ b/docs/01-iniciacao/artefatos/registro-partes-interessadas.xlsx
@@ -1,21 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC993996-C14C-4415-826C-1782292797D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="33075" yWindow="3255" windowWidth="19875" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Partes interessadas - ident." sheetId="1" r:id="rId1"/>
     <sheet name="Partes interessadas - avaliação" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+  <si>
+    <t>Identificação do Projeto</t>
+  </si>
+  <si>
+    <t>Nome do Projeto:</t>
+  </si>
+  <si>
+    <t>SpectroBuddy</t>
+  </si>
+  <si>
+    <t>Tema do projeto:</t>
+  </si>
+  <si>
+    <t>Plataforma para auxílio de pessoas pertencentes ao espectro autista.</t>
+  </si>
+  <si>
+    <t>Gerente do Projeto:</t>
+  </si>
+  <si>
+    <t>Paula Talim</t>
+  </si>
+  <si>
+    <t>Identificação das Partes Interessadas</t>
+  </si>
   <si>
     <t>Nome</t>
   </si>
@@ -26,9 +67,90 @@
     <t>Papel no Projeto</t>
   </si>
   <si>
+    <t xml:space="preserve">E-mail </t>
+  </si>
+  <si>
     <t>Telefone</t>
   </si>
   <si>
+    <t>Gabriel Luís</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>gerencia do front-end</t>
+  </si>
+  <si>
+    <t>gabrielcecconello@hotmail.com</t>
+  </si>
+  <si>
+    <t>Leornado Piuzana</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>gerencia de desenvolvimento</t>
+  </si>
+  <si>
+    <t>leonardo.piuzanapizani@gmail.com</t>
+  </si>
+  <si>
+    <t>(31)99529-2815</t>
+  </si>
+  <si>
+    <t>Gerente do Projeto</t>
+  </si>
+  <si>
+    <t>gerencia de tarefas</t>
+  </si>
+  <si>
+    <t>paulactalim@gmail.com</t>
+  </si>
+  <si>
+    <t>Rafael Vicente</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>gerencia do banco de dados</t>
+  </si>
+  <si>
+    <t>rafavicente1112@gmail.com</t>
+  </si>
+  <si>
+    <t>Profissionais da área de saúde mental</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Promover/Promoção do projeto</t>
+  </si>
+  <si>
+    <t>Usuários com TEA e seus cuidadores</t>
+  </si>
+  <si>
+    <t>Usuarios do projeto</t>
+  </si>
+  <si>
+    <t>Lojas de aplicativo</t>
+  </si>
+  <si>
+    <t>Divulgador</t>
+  </si>
+  <si>
+    <t>Possibilitar o acesso do público ao projeto</t>
+  </si>
+  <si>
+    <t>Avaliação das Partes Interessadas</t>
+  </si>
+  <si>
+    <t>Expectativas no projeto</t>
+  </si>
+  <si>
     <t>Influência</t>
   </si>
   <si>
@@ -38,59 +160,53 @@
     <t>Apoio</t>
   </si>
   <si>
+    <t>Observações</t>
+  </si>
+  <si>
     <t>Apoiador</t>
   </si>
   <si>
+    <t>desing</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neutro </t>
   </si>
   <si>
+    <t>desenvolvedor</t>
+  </si>
+  <si>
     <t>Resistente</t>
   </si>
   <si>
+    <t>gerenciar projeto</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>gerenciar banco de dados</t>
+  </si>
+  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Baixa</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail </t>
-  </si>
-  <si>
-    <t>Identificação do Projeto</t>
-  </si>
-  <si>
-    <t>Avaliação das Partes Interessadas</t>
-  </si>
-  <si>
-    <t>Identificação das Partes Interessadas</t>
-  </si>
-  <si>
-    <t>Expectativas no projeto</t>
-  </si>
-  <si>
-    <t>Nome do Projeto:</t>
-  </si>
-  <si>
-    <t>Gerente do Projeto:</t>
-  </si>
-  <si>
-    <t>Tema do projeto:</t>
-  </si>
-  <si>
-    <t>Descrição sucinta do projeto (1 parágrafo):</t>
+    <t>promover o projeto</t>
+  </si>
+  <si>
+    <t>opnião pública</t>
+  </si>
+  <si>
+    <t>acessibilidade do público ao projeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +218,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,19 +306,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -213,14 +336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -229,14 +347,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +395,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -308,6 +429,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,9 +464,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,25 +640,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -544,34 +667,40 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -580,107 +709,160 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>31988932910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>31999531011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31989788728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B13:E15"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{6E5F9C82-6107-4691-ADA0-E865578DD13A}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{E8B6160E-B96D-437B-B2D3-CFFAEBFD9529}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{22BAE0AE-E0FD-4902-9AB5-178F2DD53E18}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{55BC8D99-6BF3-4DCD-928A-636DD8D32B62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="45.5703125" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
@@ -688,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -698,108 +880,183 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <f>'Partes interessadas - ident.'!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="str">
         <f>'Partes interessadas - ident.'!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>Leornado Piuzana</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="str">
         <f>'Partes interessadas - ident.'!A9</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>Paula Talim</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="str">
         <f>'Partes interessadas - ident.'!A10</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>Rafael Vicente</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="str">
         <f>'Partes interessadas - ident.'!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>Profissionais da área de saúde mental</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8" s="1" t="str">
+        <f>'Partes interessadas - ident.'!A12</f>
+        <v>Usuários com TEA e seus cuidadores</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="str">
+        <f>'Partes interessadas - ident.'!A13</f>
+        <v>Lojas de aplicativo</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$I$2:$I$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:D9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$I$6:$I$8</formula1>
     </dataValidation>
   </dataValidations>
